--- a/Resultados para 4 patrones/Evolución (4 patrones, N 60)/Configuración inicial - aleatoria/solapamiento_4cultivos_aleatorio.xlsx
+++ b/Resultados para 4 patrones/Evolución (4 patrones, N 60)/Configuración inicial - aleatoria/solapamiento_4cultivos_aleatorio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Documents\4_Fisica\Computacional\projects\hopfield\Resultados para 4 patrones\Evolución (4 patrones, N 60)\Configuración inicial - aleatoria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6D44985-DAEA-48AB-BD52-D8DB1A92CEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC2846B-245E-4F4B-8A1F-4406950797EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,9 +81,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -197,11 +194,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -211,8 +205,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -221,28 +224,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -527,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3:R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,86 +534,86 @@
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="H2" s="7" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="H2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="6" t="s">
+      <c r="I2" s="10"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="7" t="s">
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="8"/>
-      <c r="S2" s="3" t="s">
+      <c r="R2" s="10"/>
+      <c r="S2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="12">
+      <c r="H3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
         <f>AVERAGE(C4:C23)</f>
         <v>0.65</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" s="4" t="s">
+      <c r="L3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="R3" s="15">
+      <c r="P3" s="3"/>
+      <c r="Q3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="7">
         <f>AVERAGE(L4:L23)</f>
         <v>0.51876825000000004</v>
       </c>
-      <c r="S3" s="14">
-        <f>STDEVA(L4:L23)</f>
-        <v>0.39381645088180961</v>
+      <c r="S3" s="13">
+        <f>STDEVA(L4:L23)/SQRT(20)</f>
+        <v>8.8060035482943319E-2</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="1">
@@ -640,43 +628,43 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="12">
+      <c r="H4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
         <f>AVERAGE(D4:D23)</f>
         <v>0.7</v>
       </c>
-      <c r="K4" s="3">
-        <v>1</v>
-      </c>
-      <c r="L4" s="11">
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
         <v>0.75659799999999999</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="1">
         <v>0.72291399999999995</v>
       </c>
-      <c r="N4" s="11">
-        <v>0</v>
-      </c>
-      <c r="O4" s="11">
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
         <v>0.71644600000000003</v>
       </c>
       <c r="P4" s="1"/>
-      <c r="Q4" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="R4" s="15">
+      <c r="Q4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R4" s="7">
         <f>AVERAGE(M4:M23)</f>
         <v>0.57554485</v>
       </c>
-      <c r="S4" s="14">
-        <f t="shared" ref="S4:S6" si="0">STDEVA(L5:L24)</f>
-        <v>0.4004994488316217</v>
+      <c r="S4" s="13">
+        <f t="shared" ref="S4:S6" si="0">STDEVA(L5:L24)/SQRT(20)</f>
+        <v>8.9554399253870473E-2</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <f>B4+1</f>
         <v>2</v>
       </c>
@@ -692,14 +680,14 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="7">
         <f>AVERAGE(E4:E23)</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="2">
         <f>K4+1</f>
         <v>2</v>
       </c>
@@ -716,20 +704,20 @@
         <v>0.74760899999999997</v>
       </c>
       <c r="P5" s="1"/>
-      <c r="Q5" s="9" t="s">
+      <c r="Q5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="R5" s="15">
+      <c r="R5" s="7">
         <f>AVERAGE(N4:N23)</f>
         <v>0.38402204999999995</v>
       </c>
-      <c r="S5" s="14">
+      <c r="S5" s="13">
         <f t="shared" si="0"/>
-        <v>0.39232851280069941</v>
+        <v>8.7727322413376024E-2</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <f t="shared" ref="B6:B23" si="1">B5+1</f>
         <v>3</v>
       </c>
@@ -745,14 +733,14 @@
       <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="8">
         <f>AVERAGE(F4:F23)</f>
         <v>0.75</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="2">
         <f t="shared" ref="K6:K23" si="2">K5+1</f>
         <v>3</v>
       </c>
@@ -769,20 +757,20 @@
         <v>0</v>
       </c>
       <c r="P6" s="1"/>
-      <c r="Q6" s="10" t="s">
+      <c r="Q6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="R6" s="16">
+      <c r="R6" s="8">
         <f>AVERAGE(O4:O23)</f>
         <v>0.56399284999999988</v>
       </c>
-      <c r="S6" s="14">
+      <c r="S6" s="13">
         <f t="shared" si="0"/>
-        <v>0.39563845840566397</v>
+        <v>8.8467448750828764E-2</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -798,7 +786,7 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="2">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -817,7 +805,7 @@
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -833,7 +821,7 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="2">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -852,7 +840,7 @@
       <c r="P8" s="1"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -868,7 +856,7 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="2">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
@@ -887,7 +875,7 @@
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -903,7 +891,7 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="2">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -922,7 +910,7 @@
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -938,7 +926,7 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="2">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
@@ -957,7 +945,7 @@
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -973,7 +961,7 @@
       <c r="F12" s="1">
         <v>0</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="2">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -992,7 +980,7 @@
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -1008,7 +996,7 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="2">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -1027,7 +1015,7 @@
       <c r="P13" s="1"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
@@ -1043,7 +1031,7 @@
       <c r="F14" s="1">
         <v>1</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="2">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
@@ -1062,7 +1050,7 @@
       <c r="P14" s="1"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -1078,7 +1066,7 @@
       <c r="F15" s="1">
         <v>1</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="2">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
@@ -1097,7 +1085,7 @@
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
@@ -1113,7 +1101,7 @@
       <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="2">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
@@ -1132,7 +1120,7 @@
       <c r="P16" s="1"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
@@ -1148,7 +1136,7 @@
       <c r="F17" s="1">
         <v>1</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="2">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
@@ -1167,7 +1155,7 @@
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -1183,7 +1171,7 @@
       <c r="F18" s="1">
         <v>0</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="2">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
@@ -1202,7 +1190,7 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
@@ -1218,7 +1206,7 @@
       <c r="F19" s="1">
         <v>0</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="2">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
@@ -1237,7 +1225,7 @@
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
@@ -1253,7 +1241,7 @@
       <c r="F20" s="1">
         <v>1</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="2">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
@@ -1272,7 +1260,7 @@
       <c r="P20" s="1"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -1288,7 +1276,7 @@
       <c r="F21" s="1">
         <v>1</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="2">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
@@ -1307,7 +1295,7 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
@@ -1323,7 +1311,7 @@
       <c r="F22" s="1">
         <v>1</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="2">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
@@ -1342,7 +1330,7 @@
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
@@ -1358,7 +1346,7 @@
       <c r="F23" s="1">
         <v>1</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="2">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
